--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T06:24:07+00:00</t>
+    <t>2024-07-11T13:07:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,7 +129,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:http://example.org/StructureDefinition/MOPEDAdmissionEncounter#Encounter</t>
+    <t>element:http://example.org/StructureDefinition/MOPEDEncounter#Encounter</t>
   </si>
   <si>
     <t>ID</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T13:07:17+00:00</t>
+    <t>2024-07-15T09:40:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="112">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T09:40:45+00:00</t>
+    <t>2024-07-16T10:33:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -331,14 +331,18 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegerinteger64markdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodeableReferenceCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioRatioRangeReferenceSampledDataSignatureTimingContactDetailDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextAvailabilityExtendedContactDetailDosageMeta</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
 </t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
   </si>
   <si>
     <t xml:space="preserve">ext-1
@@ -346,6 +350,16 @@
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueBoolean</t>
+  </si>
+  <si>
+    <t>valueBoolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
 </t>
   </si>
 </sst>
@@ -659,7 +673,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -668,9 +682,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.19921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="13.4765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -678,7 +692,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1306,16 +1320,14 @@
         <v>20</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="AC6" s="2"/>
       <c r="AD6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>102</v>
@@ -1327,12 +1339,117 @@
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI7" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AK6" t="s" s="2">
+      <c r="AJ7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>101</v>
       </c>
     </row>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-16T10:33:51+00:00</t>
+    <t>2024-07-19T05:43:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T05:43:00+00:00</t>
+    <t>2024-07-31T11:45:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-31T11:45:17+00:00</t>
+    <t>2024-08-01T08:50:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T08:50:18+00:00</t>
+    <t>2024-08-01T13:41:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T13:41:58+00:00</t>
+    <t>2024-08-06T11:00:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T11:00:40+00:00</t>
+    <t>2024-08-06T12:10:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T12:10:21+00:00</t>
+    <t>2024-08-07T21:51:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T21:51:51+00:00</t>
+    <t>2024-09-03T06:35:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T06:35:21+00:00</t>
+    <t>2024-09-03T06:46:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T06:46:02+00:00</t>
+    <t>2024-09-05T05:58:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T05:58:31+00:00</t>
+    <t>2024-09-10T13:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T13:26:38+00:00</t>
+    <t>2024-09-11T18:39:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T18:39:22+00:00</t>
+    <t>2024-09-12T09:13:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T09:13:24+00:00</t>
+    <t>2024-09-12T16:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T16:58:21+00:00</t>
+    <t>2024-09-17T12:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T12:39:21+00:00</t>
+    <t>2024-09-17T13:24:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:24:04+00:00</t>
+    <t>2024-09-17T13:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:52:39+00:00</t>
+    <t>2024-09-17T14:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:02:22+00:00</t>
+    <t>2024-09-17T14:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:11:23+00:00</t>
+    <t>2024-09-17T14:20:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:20:09+00:00</t>
+    <t>2024-09-17T14:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:52:20+00:00</t>
+    <t>2024-09-17T17:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T17:35:28+00:00</t>
+    <t>2024-09-17T18:06:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:06:53+00:00</t>
+    <t>2024-09-17T18:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:22:57+00:00</t>
+    <t>2024-09-17T20:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:06:55+00:00</t>
+    <t>2024-09-17T20:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:22:56+00:00</t>
+    <t>2024-09-18T05:27:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T05:27:51+00:00</t>
+    <t>2024-09-19T11:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T11:50:53+00:00</t>
+    <t>2024-09-19T12:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T12:04:20+00:00</t>
+    <t>2024-09-22T15:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T15:40:07+00:00</t>
+    <t>2024-09-23T07:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T07:19:12+00:00</t>
+    <t>2024-09-23T11:09:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:09:48+00:00</t>
+    <t>2024-09-23T11:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:29:53+00:00</t>
+    <t>2024-09-23T11:42:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:42:54+00:00</t>
+    <t>2024-09-23T12:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T12:18:50+00:00</t>
+    <t>2024-09-23T18:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T18:28:00+00:00</t>
+    <t>2024-09-23T19:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:43:17+00:00</t>
+    <t>2024-09-23T19:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:56:54+00:00</t>
+    <t>2024-09-24T07:39:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T07:39:02+00:00</t>
+    <t>2024-09-25T11:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:00:26+00:00</t>
+    <t>2024-09-25T11:40:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:40:05+00:00</t>
+    <t>2024-09-25T11:54:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:54:18+00:00</t>
+    <t>2024-09-25T12:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T12:57:21+00:00</t>
+    <t>2024-09-25T14:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:29:33+00:00</t>
+    <t>2024-09-25T14:44:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:44:31+00:00</t>
+    <t>2024-09-26T07:10:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:10:34+00:00</t>
+    <t>2024-09-26T07:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:17:19+00:00</t>
+    <t>2024-09-26T07:48:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:48:16+00:00</t>
+    <t>2024-09-26T07:51:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:51:13+00:00</t>
+    <t>2024-09-26T08:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:50:40+00:00</t>
+    <t>2024-09-26T08:56:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:56:22+00:00</t>
+    <t>2024-09-26T09:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T09:55:47+00:00</t>
+    <t>2024-09-26T09:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T09:59:14+00:00</t>
+    <t>2024-09-26T10:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T10:56:09+00:00</t>
+    <t>2024-09-26T13:32:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T13:32:53+00:00</t>
+    <t>2024-09-26T13:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T13:57:34+00:00</t>
+    <t>2024-09-27T07:18:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T07:18:42+00:00</t>
+    <t>2024-09-30T06:58:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T06:58:27+00:00</t>
+    <t>2024-09-30T08:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:02:36+00:00</t>
+    <t>2024-09-30T08:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:10:10+00:00</t>
+    <t>2024-09-30T08:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:14:13+00:00</t>
+    <t>2024-09-30T08:48:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:48:22+00:00</t>
+    <t>2024-09-30T09:04:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T09:04:34+00:00</t>
+    <t>2024-09-30T10:20:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T10:20:26+00:00</t>
+    <t>2024-09-30T12:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T12:24:06+00:00</t>
+    <t>2024-09-30T18:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T18:33:40+00:00</t>
+    <t>2024-10-01T09:38:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T09:38:16+00:00</t>
+    <t>2024-10-01T12:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T12:31:57+00:00</t>
+    <t>2024-10-07T08:22:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T08:22:28+00:00</t>
+    <t>2024-10-11T08:15:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T08:15:28+00:00</t>
+    <t>2024-10-11T09:22:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T09:22:23+00:00</t>
+    <t>2024-10-23T07:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T07:34:13+00:00</t>
+    <t>2024-10-23T11:03:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T11:03:56+00:00</t>
+    <t>2024-10-24T12:38:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T12:38:05+00:00</t>
+    <t>2024-10-24T13:32:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:32:35+00:00</t>
+    <t>2024-10-24T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:59:53+00:00</t>
+    <t>2024-10-24T14:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T14:28:41+00:00</t>
+    <t>2024-10-24T17:45:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T17:45:49+00:00</t>
+    <t>2024-10-24T18:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-erworben.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T18:34:10+00:00</t>
+    <t>2024-10-24T19:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
